--- a/apps/condo/public/import/propertyMeter/en/propertyMeter-import-example.xlsx
+++ b/apps/condo/public/import/propertyMeter/en/propertyMeter-import-example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Address</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Automatic</t>
   </si>
   <si>
+    <t>Archive date</t>
+  </si>
+  <si>
     <t>г Москва, ул Тверская, д 1</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
   </si>
   <si>
     <t>CW</t>
@@ -1343,7 +1349,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1360,8 +1366,8 @@
     <col min="12" max="12" width="12.8516" style="1" customWidth="1"/>
     <col min="13" max="13" width="22.1719" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
-    <col min="15" max="16" width="23.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="17" width="23.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.75" customHeight="1">
@@ -1413,16 +1419,19 @@
       <c r="P1" t="s" s="7">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="13.75" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1434,37 +1443,40 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="7"/>
+      <c r="Q2" t="s" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" ht="13.75" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1476,37 +1488,38 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" ht="13.75" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1518,37 +1531,38 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" ht="13.75" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1560,37 +1574,38 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" ht="13.75" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10">
         <v>3</v>
@@ -1606,37 +1621,38 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" ht="13.75" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1652,37 +1668,38 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" ht="13.75" customHeight="1">
       <c r="A8" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>27</v>
-      </c>
       <c r="C8" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10">
         <v>3</v>
@@ -1698,37 +1715,38 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" ht="13.75" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s" s="7">
         <v>32</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>30</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1740,37 +1758,38 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" ht="13.75" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1782,37 +1801,38 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" ht="13.75" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -1824,27 +1844,28 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/apps/condo/public/import/propertyMeter/en/propertyMeter-import-example.xlsx
+++ b/apps/condo/public/import/propertyMeter/en/propertyMeter-import-example.xlsx
@@ -61,7 +61,7 @@
     <t>Automatic</t>
   </si>
   <si>
-    <t>Archive date</t>
+    <t>Decommissioning date</t>
   </si>
   <si>
     <t>г Москва, ул Тверская, д 1</t>

--- a/apps/condo/public/import/propertyMeter/en/propertyMeter-import-example.xlsx
+++ b/apps/condo/public/import/propertyMeter/en/propertyMeter-import-example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Address</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Automatic</t>
   </si>
   <si>
+    <t>Decommissioning date</t>
+  </si>
+  <si>
     <t>г Москва, ул Тверская, д 1</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
   </si>
   <si>
     <t>CW</t>
@@ -1343,7 +1349,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1360,8 +1366,8 @@
     <col min="12" max="12" width="12.8516" style="1" customWidth="1"/>
     <col min="13" max="13" width="22.1719" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
-    <col min="15" max="16" width="23.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="17" width="23.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.75" customHeight="1">
@@ -1413,16 +1419,19 @@
       <c r="P1" t="s" s="7">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="13.75" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1434,37 +1443,40 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="7"/>
+      <c r="Q2" t="s" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" ht="13.75" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1476,37 +1488,38 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" ht="13.75" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1518,37 +1531,38 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" ht="13.75" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1560,37 +1574,38 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" ht="13.75" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10">
         <v>3</v>
@@ -1606,37 +1621,38 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" ht="13.75" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1652,37 +1668,38 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" ht="13.75" customHeight="1">
       <c r="A8" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>27</v>
-      </c>
       <c r="C8" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10">
         <v>3</v>
@@ -1698,37 +1715,38 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" ht="13.75" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s" s="7">
         <v>32</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>30</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1740,37 +1758,38 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" ht="13.75" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1782,37 +1801,38 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" ht="13.75" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -1824,27 +1844,28 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
